--- a/parameter_estimation/SP_copula_sim.xlsx
+++ b/parameter_estimation/SP_copula_sim.xlsx
@@ -19,48 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>t.df</t>
-  </si>
-  <si>
-    <t>t.res.tests1</t>
-  </si>
-  <si>
-    <t>t.res.tests2</t>
-  </si>
-  <si>
-    <t>t.res.tests3</t>
-  </si>
-  <si>
-    <t>clayton.res.tests1</t>
-  </si>
-  <si>
-    <t>clayton.res.tests2</t>
-  </si>
-  <si>
-    <t>clayton.res.tests3</t>
-  </si>
-  <si>
-    <t>gumbel.res.tests1</t>
-  </si>
-  <si>
-    <t>gumbel.res.tests2</t>
-  </si>
-  <si>
-    <t>gumbel.res.tests3</t>
-  </si>
-  <si>
-    <t>frank.res.tests1</t>
-  </si>
-  <si>
-    <t>frank.res.tests2</t>
-  </si>
-  <si>
-    <t>frank.res.tests3</t>
   </si>
   <si>
     <t>Parametric bootstrap goodness-of-fit tests with hybrid test and normal copula</t>
@@ -443,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,31 +420,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0.79049999999999998</v>
@@ -488,18 +452,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6.1614000000000004</v>
@@ -507,10 +471,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>8.5175999999999998</v>
@@ -518,10 +482,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C9" t="e">
         <v>#N/A</v>
@@ -529,31 +493,31 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0.79049999999999998</v>
@@ -569,18 +533,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>6.1614000000000004</v>
@@ -588,10 +552,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>8.5175999999999998</v>
@@ -599,10 +563,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C21" t="e">
         <v>#N/A</v>
@@ -610,31 +574,31 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>1.6832</v>
@@ -642,18 +606,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>6.1614000000000004</v>
@@ -661,10 +625,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>8.5175999999999998</v>
@@ -672,10 +636,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C32" t="e">
         <v>#N/A</v>
@@ -683,31 +647,31 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>2.1996000000000002</v>
@@ -715,18 +679,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>6.1614000000000004</v>
@@ -734,10 +698,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>8.5175999999999998</v>
@@ -745,10 +709,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C43" t="e">
         <v>#N/A</v>
@@ -756,31 +720,31 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>7.4442000000000004</v>
@@ -788,18 +752,18 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>6.1614000000000004</v>
@@ -807,10 +771,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>8.5175999999999998</v>
@@ -818,10 +782,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
